--- a/observaTerra/test/resources/test.xlsx
+++ b/observaTerra/test/resources/test.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Labra\git\observaTerraPlay\observaTerra\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8370" windowHeight="2370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8376" windowHeight="2376"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Spain</t>
   </si>
@@ -31,6 +36,21 @@
   </si>
   <si>
     <t>Chile</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>hdi</t>
+  </si>
+  <si>
+    <t>aids</t>
   </si>
 </sst>
 </file>
@@ -341,7 +361,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -349,43 +369,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>3.4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
         <v>5.6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
         <v>2</v>
       </c>
     </row>

--- a/observaTerra/test/resources/test.xlsx
+++ b/observaTerra/test/resources/test.xlsx
@@ -26,18 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -50,7 +38,19 @@
     <t>hdi</t>
   </si>
   <si>
-    <t>aids</t>
+    <t>es</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>cl</t>
+  </si>
+  <si>
+    <t>wi</t>
   </si>
 </sst>
 </file>
@@ -369,48 +369,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>3.4</v>
       </c>
+      <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -419,9 +422,9 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
